--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uipath-my.sharepoint.com/personal/alexandra_veizu_uipath_com/Documents/Documents/Projects/FrameworkTemplates/REFramework/VB/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndreiKrausz\Documents\GitHub\POC5---Orange\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{00D541BD-CB78-4D75-8532-9AD73E8C785E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F8C54E24-BA5C-4BF9-8DAB-2778512EC11B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C4791F-E333-47A0-9485-FC6F1F0526E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10248" yWindow="17508" windowWidth="21252" windowHeight="9444" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
   <si>
     <t>Name</t>
   </si>
@@ -85,9 +85,6 @@
   </si>
   <si>
     <t>logF_BusinessProcessName</t>
-  </si>
-  <si>
-    <t>Framework</t>
   </si>
   <si>
     <t>Orchestrator queue Name. The value must match with the queue name defined on Orchestrator.</t>
@@ -160,6 +157,30 @@
   </si>
   <si>
     <t>ProcessABCQueue</t>
+  </si>
+  <si>
+    <t>POC5_Orange</t>
+  </si>
+  <si>
+    <t>FilePath</t>
+  </si>
+  <si>
+    <t>Desktop</t>
+  </si>
+  <si>
+    <t>Contains the path to the excel file that contains the payments information.</t>
+  </si>
+  <si>
+    <t>CUI,DEPARTAMENT,SUBDEPARTAMENT,FUNCTIE,TARIFAR INCADRARE,REALIZAT SUPLIMENTAR,ORE DE NOAPTE,SPOR DE NOAPTE,PARTE VARIABILA NET,PRIMA DETASARE NET,NET PRIMA DE POST NET,PRIMA DE POST,PRIMA DE POST BRUT,PRIMA EXCEPTIONALA NET,PRIMA EXPATRIERE NET,PRIMA INTERIMAT NET,PRIMA MOBILITATE NET,PRIMA DETASARE BRUT,PRIMA OBISNUITA NETA,Regularizari Net,BONUS,PRIMA BRUTA ONCALL,PRIMA BRUTA OVERTIME,BENEFICIU IN NATURA,BRUT PT IMPOZITARE,BAZA CALCUL SOMAJ 1,BAZA CALCUL CAS,BAZA SANATATE,VENIT NET PT IMPOZITARE,BAZA PT IMPOZITARE,BRUT TICHETE MASA,BRUT TOTAL TICHETE,NET,CONTRIBUTIE SCHEMA PENSII,BRUT DIURNA DELEGATIE</t>
+  </si>
+  <si>
+    <t>Contains the names of the columns which need to be kept in the data table.</t>
+  </si>
+  <si>
+    <t>ColumnsToBeKept</t>
+  </si>
+  <si>
+    <t>CompaniiPath</t>
   </si>
 </sst>
 </file>
@@ -538,15 +559,15 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5546875" customWidth="1"/>
+    <col min="1" max="1" width="43.54296875" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="81.44140625" customWidth="1"/>
-    <col min="4" max="26" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="81.453125" customWidth="1"/>
+    <col min="4" max="26" width="8.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -585,42 +606,69 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="43.2">
+    <row r="3" spans="1:26" ht="43.5">
       <c r="A3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:26" ht="28.8">
+    <row r="5" spans="1:26" ht="29">
       <c r="A5" t="s">
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" t="s">
+        <v>49</v>
+      </c>
+    </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+    </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1623,12 +1671,12 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.44140625" customWidth="1"/>
-    <col min="4" max="26" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="75.453125" customWidth="1"/>
+    <col min="4" max="26" width="8.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -1665,7 +1713,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="28.8">
+    <row r="2" spans="1:26" ht="29">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1673,18 +1721,18 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="43.2">
+    <row r="3" spans="1:26" ht="43.5">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1708,7 +1756,7 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
@@ -1730,7 +1778,7 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
@@ -1741,7 +1789,7 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
@@ -1752,53 +1800,53 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" spans="1:3" ht="28.8">
+    <row r="17" spans="1:3" ht="29">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B17" t="b">
         <v>0</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1"/>
@@ -2786,12 +2834,12 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.88671875" customWidth="1"/>
-    <col min="2" max="2" width="30.109375" customWidth="1"/>
-    <col min="3" max="3" width="60.33203125" customWidth="1"/>
-    <col min="4" max="26" width="65.44140625" customWidth="1"/>
+    <col min="1" max="1" width="31.90625" customWidth="1"/>
+    <col min="2" max="2" width="30.08984375" customWidth="1"/>
+    <col min="3" max="3" width="60.36328125" customWidth="1"/>
+    <col min="4" max="26" width="65.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -2802,7 +2850,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndreiKrausz\Documents\GitHub\POC5---Orange\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C4791F-E333-47A0-9485-FC6F1F0526E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77701A42-653F-4794-A95A-8926C5C13D79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="53">
   <si>
     <t>Name</t>
   </si>
@@ -162,9 +162,6 @@
     <t>POC5_Orange</t>
   </si>
   <si>
-    <t>FilePath</t>
-  </si>
-  <si>
     <t>Desktop</t>
   </si>
   <si>
@@ -181,6 +178,12 @@
   </si>
   <si>
     <t>CompaniiPath</t>
+  </si>
+  <si>
+    <t>InputFilePath</t>
+  </si>
+  <si>
+    <t>CentralizatorPath</t>
   </si>
 </sst>
 </file>
@@ -559,7 +562,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -639,38 +642,45 @@
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" t="s">
         <v>45</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" t="s">
         <v>48</v>
-      </c>
-      <c r="C9" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+    </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndreiKrausz\Documents\GitHub\POC5---Orange\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77701A42-653F-4794-A95A-8926C5C13D79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A452C60-DD7F-4EFD-BCB9-9267B323E95C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndreiKrausz\Documents\GitHub\POC5---Orange\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A452C60-DD7F-4EFD-BCB9-9267B323E95C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{775FBA90-8BDE-46EF-81F9-31CD72F41C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
   <si>
     <t>Name</t>
   </si>
@@ -162,9 +162,6 @@
     <t>POC5_Orange</t>
   </si>
   <si>
-    <t>Desktop</t>
-  </si>
-  <si>
     <t>Contains the path to the excel file that contains the payments information.</t>
   </si>
   <si>
@@ -183,7 +180,22 @@
     <t>InputFilePath</t>
   </si>
   <si>
-    <t>CentralizatorPath</t>
+    <t>Data\Output\companii.xlsx</t>
+  </si>
+  <si>
+    <t>Data\Output\MinMaxMed.xlsx</t>
+  </si>
+  <si>
+    <t>MinMaxMedPath</t>
+  </si>
+  <si>
+    <t>CompaniiGraphPath</t>
+  </si>
+  <si>
+    <t>Data\Output\companiiGraph.xlsx</t>
+  </si>
+  <si>
+    <t>Data\Input\stat plata extins.xlsx</t>
   </si>
 </sst>
 </file>
@@ -561,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -642,47 +654,54 @@
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" t="s">
         <v>47</v>
-      </c>
-      <c r="C9" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="A13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" t="s">
         <v>52</v>
-      </c>
-      <c r="B13" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+    </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
     <row r="18" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndreiKrausz\Documents\GitHub\POC5---Orange\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{775FBA90-8BDE-46EF-81F9-31CD72F41C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ACF4489-3781-430F-8057-0E7AB913B17E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="63">
   <si>
     <t>Name</t>
   </si>
@@ -196,6 +196,24 @@
   </si>
   <si>
     <t>Data\Input\stat plata extins.xlsx</t>
+  </si>
+  <si>
+    <t>ListOfTypes</t>
+  </si>
+  <si>
+    <t>CUI,Departament,Subdepartament,FUNCTIE</t>
+  </si>
+  <si>
+    <t>The path of the MinMaxMed.xlsx file to be created and written to.</t>
+  </si>
+  <si>
+    <t>The path of the companiiGraph.xlsx.xlsx file to be created and written to.</t>
+  </si>
+  <si>
+    <t>The path of the companii.xlsx file to be created and writtent to.</t>
+  </si>
+  <si>
+    <t>The list of Types of ranks inside each company , types for which we have to find Min Max Med, one at a time.</t>
   </si>
 </sst>
 </file>
@@ -574,7 +592,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -683,6 +701,9 @@
       <c r="B11" t="s">
         <v>51</v>
       </c>
+      <c r="C11" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
@@ -692,6 +713,9 @@
       <c r="B13" t="s">
         <v>52</v>
       </c>
+      <c r="C13" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
@@ -701,24 +725,37 @@
       <c r="B15" t="s">
         <v>55</v>
       </c>
+      <c r="C15" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" ht="14.25" customHeight="1"/>
-    <row r="18" ht="14.25" customHeight="1"/>
-    <row r="19" ht="14.25" customHeight="1"/>
-    <row r="20" ht="14.25" customHeight="1"/>
-    <row r="21" ht="14.25" customHeight="1"/>
-    <row r="22" ht="14.25" customHeight="1"/>
-    <row r="23" ht="14.25" customHeight="1"/>
-    <row r="24" ht="14.25" customHeight="1"/>
-    <row r="25" ht="14.25" customHeight="1"/>
-    <row r="26" ht="14.25" customHeight="1"/>
-    <row r="27" ht="14.25" customHeight="1"/>
-    <row r="28" ht="14.25" customHeight="1"/>
-    <row r="29" ht="14.25" customHeight="1"/>
-    <row r="30" ht="14.25" customHeight="1"/>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
+    <row r="17" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="19" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="20" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="21" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="22" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="23" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="24" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="25" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="26" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="27" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="28" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="29" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="30" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="31" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndreiKrausz\Documents\GitHub\POC5---Orange\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ACF4489-3781-430F-8057-0E7AB913B17E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A45DB21-5AED-4D4E-A069-382E5107C037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="85">
   <si>
     <t>Name</t>
   </si>
@@ -214,13 +214,81 @@
   </si>
   <si>
     <t>The list of Types of ranks inside each company , types for which we have to find Min Max Med, one at a time.</t>
+  </si>
+  <si>
+    <t>CodeForGraphasTXTPath</t>
+  </si>
+  <si>
+    <t>GraphsFolderPath</t>
+  </si>
+  <si>
+    <t>Path of the txt file containing VBA code for creating charts.</t>
+  </si>
+  <si>
+    <t>Path to the folder where the PDF files should be saved</t>
+  </si>
+  <si>
+    <t>C:\Users\AndreiKrausz\Documents\GitHub\POC5---Orange\Data\Output\PDF_COMPANII</t>
+  </si>
+  <si>
+    <t>Data\Input\vbaCodeForChars.txt</t>
+  </si>
+  <si>
+    <t>ZipFilePath</t>
+  </si>
+  <si>
+    <t>Data\Output\AndreiKrausz.zip</t>
+  </si>
+  <si>
+    <t>SharePointURL</t>
+  </si>
+  <si>
+    <t>SharePointLibraryName</t>
+  </si>
+  <si>
+    <t>SharePointNewFolder</t>
+  </si>
+  <si>
+    <t>MailSubject</t>
+  </si>
+  <si>
+    <t>MailAddress</t>
+  </si>
+  <si>
+    <t>Rezultate Orange</t>
+  </si>
+  <si>
+    <t>andrei.krausz@fwfcompany.com</t>
+  </si>
+  <si>
+    <t>devs/'Shared Folder'/KrauszAndrei</t>
+  </si>
+  <si>
+    <t>Documente partajate/devs/'Shared Folder'/KrauszAndrei/Andreikrausz.zip</t>
+  </si>
+  <si>
+    <t>SharePointPathWhereToUpload</t>
+  </si>
+  <si>
+    <t>https://futureworkforcecompany.sharepoint.com/sites/dreamteam/</t>
+  </si>
+  <si>
+    <t>Documente</t>
+  </si>
+  <si>
+    <t>MailBody</t>
+  </si>
+  <si>
+    <t>Buna ziua,
+Atasat gasiti fisierul arhivat generat ce contoine rezultatele POC Orange.
+Mai jos gasiti linkul si path-ul catre fisierul arhivat ce contine rezultatele POC Orange:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -244,6 +312,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -262,10 +336,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -275,8 +350,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -589,18 +666,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z998"/>
+  <dimension ref="A1:Z996"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.54296875" customWidth="1"/>
+    <col min="1" max="1" width="43.5546875" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="81.453125" customWidth="1"/>
-    <col min="4" max="26" width="8.6328125" customWidth="1"/>
+    <col min="3" max="3" width="81.44140625" customWidth="1"/>
+    <col min="4" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -648,7 +725,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="43.5">
+    <row r="3" spans="1:26" ht="43.2">
       <c r="A3" s="2" t="s">
         <v>30</v>
       </c>
@@ -658,7 +735,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:26" ht="29">
+    <row r="5" spans="1:26" ht="28.8">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -742,36 +819,112 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="19" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="19" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" t="s">
+        <v>65</v>
+      </c>
+    </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="21" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="21" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" t="s">
+        <v>66</v>
+      </c>
+    </row>
     <row r="22" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="23" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="23" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" t="s">
+        <v>70</v>
+      </c>
+    </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="25" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="25" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
     <row r="26" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="27" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="27" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A27" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" t="s">
+        <v>82</v>
+      </c>
+    </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="29" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="29" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A29" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" t="s">
+        <v>78</v>
+      </c>
+    </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="31" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="31" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A31" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" t="s">
+        <v>79</v>
+      </c>
+    </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="33" ht="14.25" customHeight="1"/>
-    <row r="34" ht="14.25" customHeight="1"/>
-    <row r="35" ht="14.25" customHeight="1"/>
-    <row r="36" ht="14.25" customHeight="1"/>
-    <row r="37" ht="14.25" customHeight="1"/>
-    <row r="38" ht="14.25" customHeight="1"/>
-    <row r="39" ht="14.25" customHeight="1"/>
-    <row r="40" ht="14.25" customHeight="1"/>
-    <row r="41" ht="14.25" customHeight="1"/>
-    <row r="42" ht="14.25" customHeight="1"/>
-    <row r="43" ht="14.25" customHeight="1"/>
-    <row r="44" ht="14.25" customHeight="1"/>
-    <row r="45" ht="14.25" customHeight="1"/>
-    <row r="46" ht="14.25" customHeight="1"/>
-    <row r="47" ht="14.25" customHeight="1"/>
-    <row r="48" ht="14.25" customHeight="1"/>
+    <row r="33" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A33" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="35" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A35" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="37" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A37" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="39" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="40" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="41" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="42" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="43" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="44" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="45" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="46" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="47" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="48" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="49" ht="14.25" customHeight="1"/>
     <row r="50" ht="14.25" customHeight="1"/>
     <row r="51" ht="14.25" customHeight="1"/>
@@ -1720,12 +1873,14 @@
     <row r="994" ht="14.25" customHeight="1"/>
     <row r="995" ht="14.25" customHeight="1"/>
     <row r="996" ht="14.25" customHeight="1"/>
-    <row r="997" ht="14.25" customHeight="1"/>
-    <row r="998" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="B35" r:id="rId1" xr:uid="{C10973EA-4F38-4CF9-B432-9372838D2432}"/>
+    <hyperlink ref="B25" r:id="rId2" xr:uid="{E4F2ADEC-51B9-4682-A3FC-1950A3C095C4}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1737,12 +1892,12 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.453125" customWidth="1"/>
-    <col min="4" max="26" width="8.6328125" customWidth="1"/>
+    <col min="3" max="3" width="75.44140625" customWidth="1"/>
+    <col min="4" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -1779,7 +1934,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="29">
+    <row r="2" spans="1:26" ht="28.8">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1790,7 +1945,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="43.5">
+    <row r="3" spans="1:26" ht="43.2">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -1904,7 +2059,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" spans="1:3" ht="29">
+    <row r="17" spans="1:3" ht="28.8">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -2900,12 +3055,12 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.90625" customWidth="1"/>
-    <col min="2" max="2" width="30.08984375" customWidth="1"/>
-    <col min="3" max="3" width="60.36328125" customWidth="1"/>
-    <col min="4" max="26" width="65.453125" customWidth="1"/>
+    <col min="1" max="1" width="31.88671875" customWidth="1"/>
+    <col min="2" max="2" width="30.109375" customWidth="1"/>
+    <col min="3" max="3" width="60.33203125" customWidth="1"/>
+    <col min="4" max="26" width="65.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndreiKrausz\Documents\GitHub\POC5---Orange\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A45DB21-5AED-4D4E-A069-382E5107C037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{149EF415-B3CC-4EFE-9041-AF1E6AF3549E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -258,9 +258,6 @@
     <t>Rezultate Orange</t>
   </si>
   <si>
-    <t>andrei.krausz@fwfcompany.com</t>
-  </si>
-  <si>
     <t>devs/'Shared Folder'/KrauszAndrei</t>
   </si>
   <si>
@@ -282,6 +279,9 @@
     <t>Buna ziua,
 Atasat gasiti fisierul arhivat generat ce contoine rezultatele POC Orange.
 Mai jos gasiti linkul si path-ul catre fisierul arhivat ce contine rezultatele POC Orange:</t>
+  </si>
+  <si>
+    <t>paul.placintar@fwfcompany.com</t>
   </si>
 </sst>
 </file>
@@ -669,7 +669,7 @@
   <dimension ref="A1:Z996"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -857,7 +857,7 @@
         <v>71</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="14.25" customHeight="1"/>
@@ -866,7 +866,7 @@
         <v>72</v>
       </c>
       <c r="B27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1"/>
@@ -875,16 +875,16 @@
         <v>73</v>
       </c>
       <c r="B29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="31" spans="1:3" ht="14.25" customHeight="1">
       <c r="A31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1"/>
@@ -902,16 +902,16 @@
         <v>75</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="37" spans="1:2" ht="14.25" customHeight="1">
       <c r="A37" t="s">
+        <v>82</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="14.25" customHeight="1"/>
